--- a/config fields (1) (version 1).xlsx
+++ b/config fields (1) (version 1).xlsx
@@ -1078,7 +1078,7 @@
   <dimension ref="A1:I15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
